--- a/data/coordinates.xlsx
+++ b/data/coordinates.xlsx
@@ -157,7 +157,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-350</v>
+        <v>-500</v>
       </c>
     </row>
   </sheetData>

--- a/data/coordinates.xlsx
+++ b/data/coordinates.xlsx
@@ -133,7 +133,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -151,13 +151,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-500</v>
+        <v>-400</v>
       </c>
     </row>
   </sheetData>
